--- a/Robot Facturación Materia Prima/Config/Descargas/Pedidos SAP.xlsx
+++ b/Robot Facturación Materia Prima/Config/Descargas/Pedidos SAP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>PEDIDOS DE COMPRA MATERIA PRIMA SAP</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>Fuera de rango</t>
-  </si>
-  <si>
-    <t>Fuera</t>
   </si>
 </sst>
 </file>
@@ -1477,8 +1474,8 @@
   </sheetPr>
   <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1643,9 +1640,7 @@
       <c r="I4" s="35">
         <v>0.05</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1689,9 +1684,7 @@
       <c r="I5" s="35">
         <v>0.05</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1735,9 +1728,7 @@
       <c r="I6" s="35">
         <v>0.05</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1783,9 +1774,7 @@
       <c r="I7" s="35">
         <v>0.45</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1829,9 +1818,7 @@
       <c r="I8" s="38">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1875,9 +1862,7 @@
       <c r="I9" s="38">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1921,9 +1906,7 @@
       <c r="I10" s="35">
         <v>0.19500000000000001</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1967,9 +1950,7 @@
       <c r="I11" s="35">
         <v>0.19500000000000001</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2013,9 +1994,7 @@
       <c r="I12" s="35">
         <v>0.19500000000000001</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2061,9 +2040,7 @@
       <c r="I13" s="35">
         <v>0.04</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2107,9 +2084,7 @@
       <c r="I14" s="35">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2153,9 +2128,7 @@
       <c r="I15" s="35">
         <v>0.21</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2199,9 +2172,7 @@
       <c r="I16" s="35">
         <v>0.16</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2245,9 +2216,7 @@
       <c r="I17" s="35">
         <v>0.3</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2293,9 +2262,7 @@
       <c r="I18" s="35">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2341,9 +2308,7 @@
       <c r="I19" s="38">
         <v>0.2</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2389,9 +2354,7 @@
       <c r="I20" s="38">
         <v>0.33</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2437,9 +2400,7 @@
       <c r="I21" s="35">
         <v>0.16</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2485,9 +2446,7 @@
       <c r="I22" s="38">
         <v>0.1</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2531,9 +2490,7 @@
       <c r="I23" s="35">
         <v>0.08</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2577,9 +2534,7 @@
       <c r="I24" s="35">
         <v>0.15</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2623,9 +2578,7 @@
       <c r="I25" s="35">
         <v>0.08</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2669,9 +2622,7 @@
       <c r="I26" s="35">
         <v>0.08</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2715,9 +2666,7 @@
       <c r="I27" s="88">
         <v>0.2</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -29520,7 +29469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>

--- a/Robot Facturación Materia Prima/Config/Descargas/Pedidos SAP.xlsx
+++ b/Robot Facturación Materia Prima/Config/Descargas/Pedidos SAP.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>PEDIDOS DE COMPRA MATERIA PRIMA SAP</t>
   </si>
@@ -1474,8 +1474,8 @@
   </sheetPr>
   <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J27"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="55">
-        <v>1900003262</v>
+        <v>4400154653</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>17</v>
@@ -1763,11 +1763,9 @@
         <v>18</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="61" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="61"/>
       <c r="H7" s="35">
         <v>0.01</v>
       </c>
@@ -29470,7 +29468,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Robot Facturación Materia Prima/Config/Descargas/Pedidos SAP.xlsx
+++ b/Robot Facturación Materia Prima/Config/Descargas/Pedidos SAP.xlsx
@@ -1474,8 +1474,8 @@
   </sheetPr>
   <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1591,10 +1591,10 @@
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I3" s="35">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1638,7 +1638,7 @@
         <v>0.01</v>
       </c>
       <c r="I4" s="35">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="35">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="35">
         <v>7.0000000000000001E-3</v>
@@ -2212,7 +2212,7 @@
         <v>0.01</v>
       </c>
       <c r="I17" s="35">
-        <v>0.3</v>
+        <v>20.5</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -29468,7 +29468,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Robot Facturación Materia Prima/Config/Descargas/Pedidos SAP.xlsx
+++ b/Robot Facturación Materia Prima/Config/Descargas/Pedidos SAP.xlsx
@@ -862,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1112,9 +1112,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,7 +1471,7 @@
   </sheetPr>
   <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1492,18 +1489,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="H1" s="99" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="H1" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="100"/>
+      <c r="I1" s="99"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2654,14 +2651,14 @@
       <c r="E27" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86" t="s">
+      <c r="F27" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="87">
+      <c r="G27" s="85"/>
+      <c r="H27" s="86">
         <v>0.01</v>
       </c>
-      <c r="I27" s="88">
+      <c r="I27" s="87">
         <v>0.2</v>
       </c>
       <c r="J27" s="1"/>
@@ -29474,103 +29471,103 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="95" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="89">
+      <c r="C4" s="88">
         <v>18500</v>
       </c>
-      <c r="D4" s="89">
+      <c r="D4" s="88">
         <v>34500</v>
       </c>
-      <c r="E4" s="96"/>
+      <c r="E4" s="95"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="88">
         <v>11300</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="88">
         <v>22840</v>
       </c>
-      <c r="E5" s="96"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="93">
         <v>24000</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="93">
         <v>39000</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="95"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="93">
         <v>29500</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="93">
         <v>41000</v>
       </c>
-      <c r="E7" s="96"/>
+      <c r="E7" s="95"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="93">
         <v>14380</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="93">
         <v>32800</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
